--- a/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
+++ b/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cc995e42-3bfa-43e6-9f96-9d6a4feea3e3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31e78691-5680-4957-a397-2dd5db6d5535}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568fdf39-a3ad-4779-9076-50e65342d34e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1711228b-ecd2-414f-94cf-b2f36660ea71}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
+++ b/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31e78691-5680-4957-a397-2dd5db6d5535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346489f0-ad85-4e13-ba03-83409e877282}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1711228b-ecd2-414f-94cf-b2f36660ea71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c6c18232-b398-495f-a184-e4fad79d5eed}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
+++ b/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346489f0-ad85-4e13-ba03-83409e877282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17e666f2-dedf-4d61-978d-c0d4a9d76085}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c6c18232-b398-495f-a184-e4fad79d5eed}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050b939f-b296-4a1b-9abf-514e98619b51}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
+++ b/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17e666f2-dedf-4d61-978d-c0d4a9d76085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{af637090-bd37-4b5e-ba37-54026d67d1ab}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050b939f-b296-4a1b-9abf-514e98619b51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711a89ed-2ca2-4b1a-b15a-c9bd8c456361}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
+++ b/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{af637090-bd37-4b5e-ba37-54026d67d1ab}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eac67542-50da-4d18-bf2b-659338087b13}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711a89ed-2ca2-4b1a-b15a-c9bd8c456361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fda42ed7-5f62-4c4c-9d44-14dfc40d04fd}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
+++ b/Data_Excel/HP_Chongqing to Shenzhen0808 PSD summary (1).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5b9d0dc7-4799-4ce9-b694-eed494a7d489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439a1206-b8af-4d93-9851-44f5fc707258}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518ce5f-56a3-4b2c-94b5-155ff81705fd}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c70b929a-4b4e-4e8d-b849-9cbd048b2f3d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
